--- a/workflow.xlsx
+++ b/workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maysa\Desktop\switch-games\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CA57EAA-F697-4B69-91E9-AFC891DA77FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4854F30-58E5-4562-9371-D3E26C614F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{2DB097A9-347F-4BFB-8901-2B75A6AB7005}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>fetch_eu.js</t>
   </si>
@@ -113,10 +113,13 @@
     <t>google_analytics.js</t>
   </si>
   <si>
-    <t>output (need to be re-committed)</t>
-  </si>
-  <si>
     <t>output (fresh)</t>
+  </si>
+  <si>
+    <t>commit to  https://x-access-token:${{ secrets.PERSONAL_ACCESS_TOKEN }}@github.com/maysaleba/maysaleba.github.io.git</t>
+  </si>
+  <si>
+    <t>output (need to be re-committed to self repository)</t>
   </si>
 </sst>
 </file>
@@ -501,17 +504,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B56AC468-C411-4C47-8F98-3CFE3B9FCD0B}">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="18.08984375" customWidth="1"/>
     <col min="3" max="3" width="20.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7265625" customWidth="1"/>
     <col min="5" max="5" width="18.36328125" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="13.90625" customWidth="1"/>
@@ -520,29 +523,30 @@
     <col min="10" max="10" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.90625" customWidth="1"/>
     <col min="12" max="12" width="16.81640625" customWidth="1"/>
+    <col min="13" max="13" width="103.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -574,8 +578,11 @@
       <c r="L2" t="s">
         <v>22</v>
       </c>
+      <c r="M2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -595,7 +602,7 @@
       <c r="I3" s="2"/>
       <c r="K3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -620,8 +627,11 @@
       <c r="L4" t="s">
         <v>23</v>
       </c>
+      <c r="M4" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -641,7 +651,7 @@
       <c r="I5" s="2"/>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
